--- a/plan.xlsx
+++ b/plan.xlsx
@@ -128,7 +128,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +138,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -164,9 +179,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -474,16 +491,16 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="3">
         <v>43198</v>
       </c>
     </row>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>unity 原型 爆破游戏</t>
   </si>
@@ -488,13 +488,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
@@ -505,11 +508,27 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>43205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43220</v>
       </c>
     </row>
   </sheetData>
@@ -523,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>unity 原型 爆破游戏</t>
   </si>
@@ -491,7 +491,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -540,10 +540,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A52"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -588,131 +588,121 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
         <v>32</v>
       </c>
     </row>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -603,12 +603,12 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>unity 原型 爆破游戏</t>
   </si>
@@ -488,15 +488,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -529,6 +529,30 @@
       </c>
       <c r="B4" s="1">
         <v>43220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43251</v>
       </c>
     </row>
   </sheetData>
@@ -542,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>unity 原型 爆破游戏</t>
   </si>
@@ -121,6 +122,65 @@
   </si>
   <si>
     <t>独立游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>News</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期三</t>
+  </si>
+  <si>
+    <t>星期四</t>
+  </si>
+  <si>
+    <t>星期五</t>
+  </si>
+  <si>
+    <t>星期六</t>
+  </si>
+  <si>
+    <t>星期日</t>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game Daily</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game Extra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game Mobile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,7 +550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -734,4 +794,275 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <v>0.5</v>
+      </c>
+      <c r="H2">
+        <v>0.5</v>
+      </c>
+      <c r="I2">
+        <f>SUM(B2:H2)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f>SUM(B3:H3)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.5</v>
+      </c>
+      <c r="H4">
+        <v>0.5</v>
+      </c>
+      <c r="I4">
+        <f>SUM(B4:H4)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I9" si="0">SUM(B5:H5)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>1.5</v>
+      </c>
+      <c r="C6">
+        <v>1.5</v>
+      </c>
+      <c r="D6">
+        <v>1.5</v>
+      </c>
+      <c r="E6">
+        <v>1.5</v>
+      </c>
+      <c r="F6">
+        <v>1.5</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <f>3/4</f>
+        <v>0.75</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:G7" si="1">3/4</f>
+        <v>0.75</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8">
+        <v>1.5</v>
+      </c>
+      <c r="G8">
+        <f>1.5*2</f>
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/plan.xlsx
+++ b/plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>unity 原型 爆破游戏</t>
   </si>
@@ -181,6 +181,10 @@
   </si>
   <si>
     <t>Game Mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -798,10 +802,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -809,7 +813,7 @@
     <col min="1" max="1" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>40</v>
       </c>
@@ -831,11 +835,11 @@
       <c r="H1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -860,12 +864,12 @@
       <c r="H2">
         <v>0.5</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <f>SUM(B2:H2)</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -890,74 +894,74 @@
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <f>SUM(B3:H3)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f>SUM(B4:H4)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>37</v>
       </c>
-      <c r="B4">
-        <v>0.5</v>
-      </c>
-      <c r="C4">
-        <v>0.5</v>
-      </c>
-      <c r="D4">
-        <v>0.5</v>
-      </c>
-      <c r="E4">
-        <v>0.5</v>
-      </c>
-      <c r="F4">
-        <v>0.5</v>
-      </c>
-      <c r="G4">
-        <v>0.5</v>
-      </c>
-      <c r="H4">
-        <v>0.5</v>
-      </c>
-      <c r="I4">
-        <f>SUM(B4:H4)</f>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+      <c r="J5">
+        <f>SUM(B5:H5)</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <f t="shared" ref="I5:I9" si="0">SUM(B5:H5)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>1.5</v>
@@ -972,68 +976,70 @@
         <v>1.5</v>
       </c>
       <c r="F6">
-        <v>1.5</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+        <f>1.5*2</f>
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <f>SUM(B6:H6)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7">
+        <f>1.5*2</f>
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <f>SUM(B7:H7)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>50</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <f>3/4</f>
         <v>0.75</v>
       </c>
-      <c r="C7">
-        <f t="shared" ref="C7:G7" si="1">3/4</f>
+      <c r="C8">
+        <f t="shared" ref="C8:H8" si="0">3/4</f>
         <v>0.75</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
+      <c r="D8">
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
+      <c r="E8">
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
+      <c r="F8">
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
+      <c r="G8">
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="I7">
+      <c r="H8">
         <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8">
-        <v>1.5</v>
-      </c>
-      <c r="G8">
-        <f>1.5*2</f>
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+        <v>0.75</v>
+      </c>
+      <c r="J8">
+        <f>SUM(B8:H8)</f>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1056,9 +1062,42 @@
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
+      <c r="J9">
+        <f t="shared" ref="J9" si="1">SUM(B9:H9)</f>
         <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <f>SUM(B2:B9)</f>
+        <v>6.25</v>
+      </c>
+      <c r="C11">
+        <f>SUM(C2:C9)</f>
+        <v>6.25</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D2:D9)</f>
+        <v>6.25</v>
+      </c>
+      <c r="E11">
+        <f>SUM(E2:E9)</f>
+        <v>6.25</v>
+      </c>
+      <c r="F11">
+        <f>SUM(F2:F9)</f>
+        <v>7.75</v>
+      </c>
+      <c r="G11">
+        <f>SUM(G2:G9)</f>
+        <v>7.75</v>
+      </c>
+      <c r="H11">
+        <f>SUM(H2:H9)</f>
+        <v>7.75</v>
       </c>
     </row>
   </sheetData>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>unity 原型 爆破游戏</t>
   </si>
@@ -185,6 +185,10 @@
   </si>
   <si>
     <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -192,7 +196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +226,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -243,11 +260,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -552,18 +571,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
@@ -571,7 +590,7 @@
         <v>43198</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -579,43 +598,51 @@
         <v>43205</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="5">
+        <v>43213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <v>43212</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <v>43220</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <v>43234</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <v>43241</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>43251</v>
       </c>
     </row>
@@ -634,162 +661,162 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>32</v>
       </c>
@@ -808,12 +835,12 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="B1" t="s">
         <v>40</v>
       </c>
@@ -839,7 +866,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -865,11 +892,11 @@
         <v>0.5</v>
       </c>
       <c r="J2">
-        <f>SUM(B2:H2)</f>
+        <f t="shared" ref="J2:J8" si="0">SUM(B2:H2)</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -895,11 +922,11 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <f>SUM(B3:H3)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -925,11 +952,11 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <f>SUM(B4:H4)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -955,11 +982,11 @@
         <v>0.5</v>
       </c>
       <c r="J5">
-        <f>SUM(B5:H5)</f>
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -980,11 +1007,11 @@
         <v>3</v>
       </c>
       <c r="J6">
-        <f>SUM(B6:H6)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -996,11 +1023,11 @@
         <v>3</v>
       </c>
       <c r="J7">
-        <f>SUM(B7:H7)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1009,35 +1036,35 @@
         <v>0.75</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:H8" si="0">3/4</f>
+        <f t="shared" ref="C8:H8" si="1">3/4</f>
         <v>0.75</v>
       </c>
       <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="J8">
-        <f>SUM(B8:H8)</f>
         <v>5.25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1063,40 +1090,40 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <f t="shared" ref="J9" si="1">SUM(B9:H9)</f>
+        <f t="shared" ref="J9" si="2">SUM(B9:H9)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>51</v>
       </c>
       <c r="B11">
-        <f>SUM(B2:B9)</f>
+        <f t="shared" ref="B11:H11" si="3">SUM(B2:B9)</f>
         <v>6.25</v>
       </c>
       <c r="C11">
-        <f>SUM(C2:C9)</f>
+        <f t="shared" si="3"/>
         <v>6.25</v>
       </c>
       <c r="D11">
-        <f>SUM(D2:D9)</f>
+        <f t="shared" si="3"/>
         <v>6.25</v>
       </c>
       <c r="E11">
-        <f>SUM(E2:E9)</f>
+        <f t="shared" si="3"/>
         <v>6.25</v>
       </c>
       <c r="F11">
-        <f>SUM(F2:F9)</f>
+        <f t="shared" si="3"/>
         <v>7.75</v>
       </c>
       <c r="G11">
-        <f>SUM(G2:G9)</f>
+        <f t="shared" si="3"/>
         <v>7.75</v>
       </c>
       <c r="H11">
-        <f>SUM(H2:H9)</f>
+        <f t="shared" si="3"/>
         <v>7.75</v>
       </c>
     </row>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="89">
   <si>
     <t>unity 原型 爆破游戏</t>
   </si>
@@ -189,6 +190,150 @@
   </si>
   <si>
     <t>cs50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gdc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叙事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任天堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞尔达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃鸡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光遇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>will</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜡烛人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插头杯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,7 +719,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1131,4 +1276,478 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <f>B1/2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>B2/2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>B3/2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f>B4/2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f>B5/2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f>B6/2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f>B7/2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f>B8/2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f>B9/2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f>B10/2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <f>B11/2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <f>B12/2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <f>B13/2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <f>B14/2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <f>B15/2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <f>B16/2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <f>B17/2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <f>B18/2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <f>B19/2</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <f>B20/2</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <f>B21/2</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <f>B22/2</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <f>B23/2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <f>B24/2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <f>B25/2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <f>B26/2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <f>B27/2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <f>B28/2</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <f>B29/2</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <f>B30/2</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <f>B31/2</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <f>B32/2</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <f>B33/2</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <f>B34/2</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <f>B35/2</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36">
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <f>B36/2</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37">
+        <v>22</v>
+      </c>
+      <c r="C37">
+        <f>B37/2</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39">
+        <f>SUM(B1:B37)</f>
+        <v>166</v>
+      </c>
+      <c r="C39">
+        <f>B39/2</f>
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:C37">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/plan.xlsx
+++ b/plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
   <si>
     <t>unity 原型 爆破游戏</t>
   </si>
@@ -214,10 +214,6 @@
   </si>
   <si>
     <t>jam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>独立</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -718,7 +714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -1282,238 +1278,226 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1">
         <f>B1/2</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <f>B2/2</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <f>B3/2</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <f>B4/2</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <f>B5/2</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <f>B6/2</f>
+        <f t="shared" ref="C6:C37" si="0">B6/2</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <f>B7/2</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <f>B8/2</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <f>B9/2</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <f>B10/2</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <f>B11/2</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <f>B12/2</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <f>B13/2</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <f>B14/2</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <f>B15/2</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16">
-        <f>B16/2</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17">
-        <f>B17/2</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18">
-        <f>B18/2</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <f>B19/2</f>
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1524,31 +1508,31 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <f>B20/2</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21">
-        <f>B21/2</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22">
-        <f>B22/2</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
@@ -1560,55 +1544,55 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <f>B23/2</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24">
         <v>4</v>
       </c>
       <c r="C24">
-        <f>B24/2</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
       <c r="C25">
-        <f>B25/2</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26">
         <v>4</v>
       </c>
       <c r="C26">
-        <f>B26/2</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B27">
         <v>4</v>
       </c>
       <c r="C27">
-        <f>B27/2</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1620,126 +1604,126 @@
         <v>5</v>
       </c>
       <c r="C28">
-        <f>B28/2</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29">
         <v>5</v>
       </c>
       <c r="C29">
-        <f>B29/2</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
       <c r="C30">
-        <f>B30/2</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31">
         <v>7</v>
       </c>
       <c r="C31">
-        <f>B31/2</f>
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B32">
         <v>7</v>
       </c>
       <c r="C32">
-        <f>B32/2</f>
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B33">
         <v>10</v>
       </c>
       <c r="C33">
-        <f>B33/2</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34">
         <v>12</v>
       </c>
       <c r="C34">
-        <f>B34/2</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35">
         <v>17</v>
       </c>
       <c r="C35">
-        <f>B35/2</f>
+        <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B36">
         <v>18</v>
       </c>
       <c r="C36">
-        <f>B36/2</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>22</v>
       </c>
       <c r="C37">
-        <f>B37/2</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="B39">
-        <f>SUM(B1:B37)</f>
-        <v>166</v>
+        <f>SUM(B6:B37)</f>
+        <v>156</v>
       </c>
       <c r="C39">
         <f>B39/2</f>
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
   <si>
     <t>unity 原型 爆破游戏</t>
   </si>
@@ -190,10 +190,6 @@
   </si>
   <si>
     <t>cs50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1276,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1298,7 +1294,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -1310,7 +1306,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1322,7 +1318,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1334,19 +1330,19 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C37" si="0">B6/2</f>
+        <f t="shared" ref="C6:C36" si="0">B6/2</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1358,7 +1354,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1370,7 +1366,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1382,7 +1378,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1394,7 +1390,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1406,7 +1402,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1418,7 +1414,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1430,7 +1426,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1442,7 +1438,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1454,7 +1450,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1466,7 +1462,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1478,7 +1474,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1490,19 +1486,19 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -1526,19 +1522,19 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -1550,7 +1546,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -1562,7 +1558,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -1574,7 +1570,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -1586,19 +1582,19 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -1610,7 +1606,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -1622,19 +1618,19 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B31">
         <v>7</v>
@@ -1649,23 +1645,23 @@
         <v>67</v>
       </c>
       <c r="B32">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1673,57 +1669,45 @@
         <v>65</v>
       </c>
       <c r="B34">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B35">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>8.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B36">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37">
-        <v>22</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="B39">
-        <f>SUM(B6:B37)</f>
-        <v>156</v>
-      </c>
-      <c r="C39">
-        <f>B39/2</f>
-        <v>78</v>
+    <row r="38" spans="1:3">
+      <c r="B38">
+        <f>SUM(B6:B36)</f>
+        <v>154</v>
+      </c>
+      <c r="C38">
+        <f>B38/2</f>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -710,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -740,7 +740,7 @@
         <v>52</v>
       </c>
       <c r="B3" s="5">
-        <v>43213</v>
+        <v>43220</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -748,7 +748,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>43212</v>
+        <v>43220</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -756,7 +756,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>43220</v>
+        <v>43227</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -764,7 +764,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>43234</v>
+        <v>43241</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -772,7 +772,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="1">
-        <v>43241</v>
+        <v>43251</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -780,7 +780,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="1">
-        <v>43251</v>
+        <v>43261</v>
       </c>
     </row>
   </sheetData>
@@ -1274,7 +1274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
   <si>
     <t>unity 原型 爆破游戏</t>
   </si>
@@ -177,155 +177,159 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Game Mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gdc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叙事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任天堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞尔达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃鸡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光遇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>will</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜡烛人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插头杯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game Daily</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Game Extra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Game Mobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网游</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gdc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>概念</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>理论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经济</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交互</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叙事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任天堂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞尔达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猎人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃鸡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光遇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>画中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>will</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青蛙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜡烛人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪念</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>插头杯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -710,7 +714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -737,7 +741,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="5">
         <v>43220</v>
@@ -966,10 +970,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1029,7 +1033,7 @@
         <v>0.5</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J8" si="0">SUM(B2:H2)</f>
+        <f t="shared" ref="J2:J11" si="0">SUM(B2:H2)</f>
         <v>3.5</v>
       </c>
     </row>
@@ -1125,148 +1129,177 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B6">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <f>1.5*2</f>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7">
-        <f>1.5*2</f>
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" ref="J6" si="1">SUM(B6:H6)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B8">
+        <v>1.5</v>
+      </c>
+      <c r="C8">
+        <v>1.5</v>
+      </c>
+      <c r="D8">
+        <v>1.5</v>
+      </c>
+      <c r="E8">
+        <v>1.5</v>
+      </c>
+      <c r="F8">
+        <v>1.5</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10">
         <f>3/4</f>
         <v>0.75</v>
       </c>
-      <c r="C8">
-        <f t="shared" ref="C8:H8" si="1">3/4</f>
+      <c r="C10">
+        <f t="shared" ref="C10:H10" si="2">3/4</f>
         <v>0.75</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
+      <c r="D10">
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
+      <c r="E10">
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
+      <c r="F10">
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
+      <c r="G10">
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
+      <c r="H10">
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="J8">
+      <c r="J10">
         <f t="shared" si="0"/>
         <v>5.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <f t="shared" ref="J9" si="2">SUM(B9:H9)</f>
-        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11">
-        <f t="shared" ref="B11:H11" si="3">SUM(B2:B9)</f>
-        <v>6.25</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="3"/>
-        <v>6.25</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="3"/>
-        <v>6.25</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="3"/>
-        <v>6.25</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="3"/>
-        <v>7.75</v>
+        <v>87</v>
       </c>
       <c r="G11">
-        <f t="shared" si="3"/>
-        <v>7.75</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <f t="shared" si="3"/>
-        <v>7.75</v>
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <f>SUM(B2:B11)</f>
+        <v>7.25</v>
+      </c>
+      <c r="C13">
+        <f>SUM(C2:C11)</f>
+        <v>7.25</v>
+      </c>
+      <c r="D13">
+        <f>SUM(D2:D11)</f>
+        <v>7.25</v>
+      </c>
+      <c r="E13">
+        <f>SUM(E2:E11)</f>
+        <v>7.25</v>
+      </c>
+      <c r="F13">
+        <f>SUM(F2:F11)</f>
+        <v>7.25</v>
+      </c>
+      <c r="G13">
+        <f>SUM(G2:G11)</f>
+        <v>8.75</v>
+      </c>
+      <c r="H13">
+        <f>SUM(H2:H11)</f>
+        <v>8.75</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1275,14 +1308,14 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1">
         <v>2</v>
@@ -1306,7 +1339,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1318,7 +1351,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1330,7 +1363,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1342,7 +1375,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1354,7 +1387,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1366,7 +1399,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1378,7 +1411,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1390,7 +1423,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1402,7 +1435,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1414,7 +1447,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1426,7 +1459,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1438,7 +1471,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1450,7 +1483,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1462,7 +1495,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1474,7 +1507,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1486,7 +1519,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -1498,7 +1531,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -1510,7 +1543,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -1522,7 +1555,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -1534,7 +1567,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -1546,7 +1579,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -1558,7 +1591,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -1570,7 +1603,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -1582,7 +1615,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -1594,7 +1627,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -1606,7 +1639,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -1618,7 +1651,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30">
         <v>7</v>
@@ -1630,7 +1663,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31">
         <v>7</v>
@@ -1642,7 +1675,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B32">
         <v>10</v>
@@ -1654,7 +1687,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B33">
         <v>12</v>
@@ -1666,7 +1699,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B34">
         <v>17</v>
@@ -1678,7 +1711,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B35">
         <v>18</v>
@@ -1690,7 +1723,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36">
         <v>22</v>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -337,7 +338,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +381,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -401,13 +409,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="58" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -972,7 +981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -1268,31 +1277,31 @@
         <v>50</v>
       </c>
       <c r="B13">
-        <f>SUM(B2:B11)</f>
+        <f t="shared" ref="B13:H13" si="3">SUM(B2:B11)</f>
         <v>7.25</v>
       </c>
       <c r="C13">
-        <f>SUM(C2:C11)</f>
+        <f t="shared" si="3"/>
         <v>7.25</v>
       </c>
       <c r="D13">
-        <f>SUM(D2:D11)</f>
+        <f t="shared" si="3"/>
         <v>7.25</v>
       </c>
       <c r="E13">
-        <f>SUM(E2:E11)</f>
+        <f t="shared" si="3"/>
         <v>7.25</v>
       </c>
       <c r="F13">
-        <f>SUM(F2:F11)</f>
+        <f t="shared" si="3"/>
         <v>7.25</v>
       </c>
       <c r="G13">
-        <f>SUM(G2:G11)</f>
+        <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
       <c r="H13">
-        <f>SUM(H2:H11)</f>
+        <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
     </row>
@@ -1751,4 +1760,129 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="B1" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="C1" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="D1" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E1" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="F1" s="6">
+        <v>2</v>
+      </c>
+      <c r="G1" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1.5</v>
+      </c>
+      <c r="B3">
+        <v>1.5</v>
+      </c>
+      <c r="C3">
+        <v>1.5</v>
+      </c>
+      <c r="D3">
+        <v>1.5</v>
+      </c>
+      <c r="E3">
+        <v>1.5</v>
+      </c>
+      <c r="F3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="E4">
+        <v>1.5</v>
+      </c>
+      <c r="F4">
+        <v>1.5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{069BCAE8-8E2D-48D5-A8BE-4B55D91C026C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>unity 原型 爆破游戏</t>
   </si>
@@ -56,9 +56,6 @@
     <t>siki c# 面向对象练习题</t>
   </si>
   <si>
-    <t>c# msdn</t>
-  </si>
-  <si>
     <t>c#入门经典</t>
   </si>
   <si>
@@ -119,14 +116,6 @@
     <t>yiibai python</t>
   </si>
   <si>
-    <t>行业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>独立游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,142 +176,6 @@
   </si>
   <si>
     <t>cs50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网游</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gdc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>概念</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>理论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经济</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交互</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叙事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任天堂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞尔达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猎人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃鸡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光遇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>画中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>will</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青蛙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜡烛人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪念</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>插头杯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -337,8 +190,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,21 +201,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -409,14 +247,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -435,7 +271,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -510,6 +346,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -545,6 +398,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -720,79 +590,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B1" s="3">
-        <v>43198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="3">
-        <v>43205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="5">
         <v>43220</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>43220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>43241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>43227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>43251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
-        <v>43241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1">
-        <v>43251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1">
         <v>43261</v>
       </c>
     </row>
@@ -804,171 +658,166 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -978,47 +827,47 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -1046,9 +895,9 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1076,9 +925,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1106,9 +955,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -1136,9 +985,9 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1166,9 +1015,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>1.5</v>
@@ -1190,9 +1039,9 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1220,9 +1069,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <f>3/4</f>
@@ -1257,9 +1106,9 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1272,9 +1121,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B13">
         <f t="shared" ref="B13:H13" si="3">SUM(B2:B11)</f>
@@ -1313,498 +1162,48 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <f>B1/2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <f>B2/2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <f>B3/2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <f>B4/2</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ref="C6:C36" si="0">B6/2</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27">
-        <v>5</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28">
-        <v>5</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29">
-        <v>5</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30">
-        <v>7</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31">
-        <v>7</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32">
-        <v>10</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33">
-        <v>12</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34">
-        <v>17</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="0"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35">
-        <v>18</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36">
-        <v>22</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="B38">
-        <f>SUM(B6:B36)</f>
-        <v>154</v>
-      </c>
-      <c r="C38">
-        <f>B38/2</f>
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A1:C37">
-    <sortCondition ref="B1"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="B1" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="C1" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="D1" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="E1" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="F1" s="6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="B1" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C1" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D1" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E1" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F1" s="4">
         <v>2</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1.5</v>
       </c>
@@ -1824,18 +1223,18 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E4">
         <v>1.5</v>
       </c>
       <c r="F4">
         <v>1.5</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1858,7 +1257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1</v>
       </c>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{069BCAE8-8E2D-48D5-A8BE-4B55D91C026C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6E70C4CE-FA61-4D9E-A373-B909820041FE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>unity 原型 爆破游戏</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>runoob js</t>
-  </si>
-  <si>
-    <t>runoob c# 复习</t>
   </si>
   <si>
     <t>runoob c# 高级</t>
@@ -594,7 +591,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -604,51 +601,36 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="3">
-        <v>43220</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1">
-        <v>43220</v>
-      </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1">
-        <v>43227</v>
-      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1">
-        <v>43241</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1">
-        <v>43251</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1">
-        <v>43261</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -707,117 +689,117 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -841,33 +823,33 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>43</v>
-      </c>
-      <c r="J1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -897,7 +879,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -927,7 +909,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -957,7 +939,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -987,7 +969,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1017,7 +999,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>1.5</v>
@@ -1041,7 +1023,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1071,7 +1053,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <f>3/4</f>
@@ -1108,7 +1090,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1123,7 +1105,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13">
         <f t="shared" ref="B13:H13" si="3">SUM(B2:B11)</f>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6E70C4CE-FA61-4D9E-A373-B909820041FE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{14D041E0-3CAF-4A16-93C3-6BB42B3002D2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>unity 原型 爆破游戏</t>
   </si>
@@ -41,12 +41,6 @@
     <t>runoob js</t>
   </si>
   <si>
-    <t>runoob c# 高级</t>
-  </si>
-  <si>
-    <t>yiibai c#</t>
-  </si>
-  <si>
     <t>siki c# 基础练习题</t>
   </si>
   <si>
@@ -181,6 +175,10 @@
   </si>
   <si>
     <t>Game Extra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c# 高级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -601,7 +599,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="3"/>
     </row>
@@ -610,7 +608,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1"/>
     </row>
@@ -622,15 +620,9 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -641,10 +633,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:A48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -689,117 +681,112 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -823,33 +810,33 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>41</v>
-      </c>
-      <c r="H1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -879,7 +866,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -909,7 +896,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -939,7 +926,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -969,7 +956,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -999,7 +986,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>1.5</v>
@@ -1023,7 +1010,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1053,7 +1040,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <f>3/4</f>
@@ -1090,7 +1077,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1105,7 +1092,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <f t="shared" ref="B13:H13" si="3">SUM(B2:B11)</f>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{14D041E0-3CAF-4A16-93C3-6BB42B3002D2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>unity 原型 爆破游戏</t>
   </si>
@@ -175,18 +174,14 @@
   </si>
   <si>
     <t>Game Extra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c# 高级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,7 +261,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -341,23 +336,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -393,23 +371,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -585,44 +546,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -632,159 +587,159 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -796,19 +751,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="B1" t="s">
         <v>34</v>
       </c>
@@ -834,7 +789,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -864,7 +819,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -894,7 +849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -924,7 +879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -954,7 +909,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -984,7 +939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1008,7 +963,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1038,7 +993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1075,7 +1030,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1090,7 +1045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1131,16 +1086,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="4">
         <v>1.5</v>
       </c>
@@ -1163,7 +1118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1172,7 +1127,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1.5</v>
       </c>
@@ -1192,7 +1147,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="E4">
         <v>1.5</v>
       </c>
@@ -1203,7 +1158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1226,7 +1181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>1</v>
       </c>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
-  <si>
-    <t>unity 原型 爆破游戏</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -549,7 +546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -560,7 +557,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="3"/>
     </row>
@@ -569,13 +566,13 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1"/>
     </row>
@@ -588,10 +585,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A48"/>
+  <dimension ref="A1:A45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -604,28 +601,28 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -634,13 +631,13 @@
         <v>6</v>
       </c>
     </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -654,18 +651,18 @@
         <v>10</v>
       </c>
     </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
         <v>13</v>
       </c>
     </row>
@@ -674,38 +671,38 @@
         <v>14</v>
       </c>
     </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
         <v>21</v>
       </c>
     </row>
@@ -714,13 +711,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
         <v>24</v>
       </c>
     </row>
@@ -729,19 +726,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -765,33 +757,33 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>40</v>
-      </c>
-      <c r="J1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -821,7 +813,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -851,7 +843,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -881,7 +873,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -911,7 +903,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -941,7 +933,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>1.5</v>
@@ -965,7 +957,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -995,7 +987,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <f>3/4</f>
@@ -1032,7 +1024,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1047,7 +1039,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13">
         <f t="shared" ref="B13:H13" si="3">SUM(B2:B11)</f>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>siki c# 基础练习题</t>
-  </si>
-  <si>
-    <t>siki c# 面向对象练习题</t>
   </si>
   <si>
     <t>c#入门经典</t>
@@ -544,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -557,7 +554,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="3"/>
     </row>
@@ -569,12 +566,6 @@
         <v>6</v>
       </c>
       <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -585,10 +576,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A45"/>
+  <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -628,11 +619,6 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -646,18 +632,18 @@
         <v>9</v>
       </c>
     </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -666,38 +652,38 @@
         <v>13</v>
       </c>
     </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
         <v>20</v>
       </c>
     </row>
@@ -706,13 +692,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
         <v>23</v>
       </c>
     </row>
@@ -721,19 +707,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -757,33 +738,33 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>39</v>
-      </c>
-      <c r="J1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -813,7 +794,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -843,7 +824,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -873,7 +854,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -903,7 +884,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -933,7 +914,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>1.5</v>
@@ -957,7 +938,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -987,7 +968,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <f>3/4</f>
@@ -1024,7 +1005,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1039,7 +1020,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <f t="shared" ref="B13:H13" si="3">SUM(B2:B11)</f>
